--- a/test-output/XL/output.xlsx
+++ b/test-output/XL/output.xlsx
@@ -4,17 +4,17 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050"/>
+    <workbookView windowHeight="13050" windowWidth="28695"/>
   </bookViews>
   <sheets>
-    <sheet name="access" sheetId="1" r:id="rId1"/>
+    <sheet name="access" r:id="rId1" sheetId="1"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="41">
   <si>
     <t>URL</t>
   </si>
@@ -38,6 +38,129 @@
   </si>
   <si>
     <t>Common Violation</t>
+  </si>
+  <si>
+    <t>https://www.google.com/</t>
+  </si>
+  <si>
+    <t>Google</t>
+  </si>
+  <si>
+    <t>H91</t>
+  </si>
+  <si>
+    <t>...}to{opacity:.35}}&lt;/style&gt;&lt;/div&gt;&lt;textarea name="csi" id="csi" style="display:none"&gt;&lt;/textarea&gt;&lt;style&gt;@media only screen and (...</t>
+  </si>
+  <si>
+    <t>This textarea element does not have a name available to an accessibility API. Valid names are: label element, title undefined, aria-label undefined, aria-labelledby undefined.</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>H91: Using HTML form controls and links</t>
+  </si>
+  <si>
+    <t>Ensure to use the HTML form controls and links so they are accessible by accessiblity APIs</t>
+  </si>
+  <si>
+    <t>F68</t>
+  </si>
+  <si>
+    <t>This form field should be labelled in some way. Use the label element (either with a "for" attribute or wrapped around the form field), or "title", "aria-label" or "aria-labelledby" attributes as appropriate.</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>F68: Failure of Success Criterion 4.1.2 due to a user interface control not having a programmatically determined name</t>
+  </si>
+  <si>
+    <t>Inform assistive technologies of changes in content</t>
+  </si>
+  <si>
+    <t>&lt;a class="gb_b gb_hc" href="https://www.google.co.in/intl/en/options/" title="Google apps" aria-expanded="false" role="button" tabindex="0" data-eqid="0click"&gt;&lt;/a&gt;&lt;div class="gb_wb"&gt;&lt;/div&gt;&lt;div c...</t>
+  </si>
+  <si>
+    <t>This element has a role of "button" but does not have a name available to an accessibility API. Valid names are: element content, aria-label undefined, aria-labelledby undefined.</t>
+  </si>
+  <si>
+    <t>H49</t>
+  </si>
+  <si>
+    <t>&lt;center&gt;&lt;input value="Google Search" ar...&lt;/center&gt;</t>
+  </si>
+  <si>
+    <t>Presentational markup used that has become obsolete in HTML5.</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>H49: Using semantic markup to mark emphasized or special text</t>
+  </si>
+  <si>
+    <t>Ensure layout tables do not contain structural markup</t>
+  </si>
+  <si>
+    <t>&lt;center&gt;&lt;div style="height:233px;margin...&lt;/center&gt;</t>
+  </si>
+  <si>
+    <t>http://www.beckmaneserve.com/login</t>
+  </si>
+  <si>
+    <t>BSSS</t>
+  </si>
+  <si>
+    <t>H57</t>
+  </si>
+  <si>
+    <t>&lt;html&gt;&lt;head&gt; &lt;link rel="stylesheet"...&lt;/html&gt;</t>
+  </si>
+  <si>
+    <t>The html element should have a lang or xml:lang attribute which describes the language of the document.</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>H57: Using language attributes on the html element</t>
+  </si>
+  <si>
+    <t>Ensure the language of a document is set</t>
+  </si>
+  <si>
+    <t>H37</t>
+  </si>
+  <si>
+    <t>&lt;img class="img-fluid mx-auto" src="/assets/logo-transparent.png"&gt;</t>
+  </si>
+  <si>
+    <t>Img element missing an alt attribute. Use the alt attribute to specify a short text alternative.</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>H37: Using alt attributes on img elements</t>
+  </si>
+  <si>
+    <t>Provide alternative text for images</t>
+  </si>
+  <si>
+    <t>G18</t>
+  </si>
+  <si>
+    <t>...type="password"&gt; &lt;!----&gt; &lt;/div&gt;&lt;button class="btn btn-primary" type="submit"&gt;Sign In&lt;/button&gt; &lt;a class="pull-right forget-pa...</t>
+  </si>
+  <si>
+    <t>This element has insufficient contrast at this conformance level. Expected a contrast ratio of at least 4.5:1, but text in this element has a contrast ratio of 4.38:1. Recommendation: change background to #222.</t>
+  </si>
+  <si>
+    <t>G18: Ensuring that a contrast ratio of at least 4.5:1 exists between text (and images of text) and background behind the text</t>
+  </si>
+  <si>
+    <t>Ensure text and images of text provide sufficient contrast</t>
   </si>
 </sst>
 </file>
@@ -528,211 +651,211 @@
     </border>
   </borders>
   <cellStyleXfs count="49">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="3" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="178">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="176">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="177">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="179">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="9">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="4" fillId="4" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="3" fillId="0" fontId="5" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyFont="0" applyNumberFormat="0" applyProtection="0" borderId="5" fillId="5" fontId="0" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="6" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="8" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="8" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="9" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="2" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="10" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="11" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="3" fillId="0" fontId="12" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="7" fillId="0" fontId="14" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="14" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="6" fillId="10" fontId="15" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="11" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="12" fontId="17" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="8" fillId="9" fontId="16" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="7" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="6" fillId="9" fontId="13" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="2" fillId="0" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="9" fillId="0" fontId="19" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="13" fontId="18" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="14" fontId="20" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="15" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="17" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="19" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="18" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="21" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="22" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="20" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="23" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="24" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="26" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="28" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="30" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="31" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="27" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="29" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="32" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="16" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="25" fontId="7" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="1" numFmtId="49" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
-    <cellStyle name="Comma" xfId="2" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
-    <cellStyle name="Currency" xfId="5" builtinId="4"/>
-    <cellStyle name="Percent" xfId="6" builtinId="5"/>
-    <cellStyle name="Check Cell" xfId="7" builtinId="23"/>
-    <cellStyle name="Heading 2" xfId="8" builtinId="17"/>
-    <cellStyle name="Note" xfId="9" builtinId="10"/>
-    <cellStyle name="Hyperlink" xfId="10" builtinId="8"/>
-    <cellStyle name="60% - Accent4" xfId="11" builtinId="44"/>
-    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9"/>
-    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="Title" xfId="16" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
-    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
-    <cellStyle name="Input" xfId="21" builtinId="20"/>
-    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
-    <cellStyle name="Good" xfId="23" builtinId="26"/>
-    <cellStyle name="Output" xfId="24" builtinId="21"/>
-    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
-    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
-    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
-    <cellStyle name="Total" xfId="28" builtinId="25"/>
-    <cellStyle name="Bad" xfId="29" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
-    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
-    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
-    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
-    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
-    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
-    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle builtinId="31" name="40% - Accent1" xfId="1"/>
+    <cellStyle builtinId="3" name="Comma" xfId="2"/>
+    <cellStyle builtinId="6" name="Comma [0]" xfId="3"/>
+    <cellStyle builtinId="7" name="Currency [0]" xfId="4"/>
+    <cellStyle builtinId="4" name="Currency" xfId="5"/>
+    <cellStyle builtinId="5" name="Percent" xfId="6"/>
+    <cellStyle builtinId="23" name="Check Cell" xfId="7"/>
+    <cellStyle builtinId="17" name="Heading 2" xfId="8"/>
+    <cellStyle builtinId="10" name="Note" xfId="9"/>
+    <cellStyle builtinId="8" name="Hyperlink" xfId="10"/>
+    <cellStyle builtinId="44" name="60% - Accent4" xfId="11"/>
+    <cellStyle builtinId="9" name="Followed Hyperlink" xfId="12"/>
+    <cellStyle builtinId="39" name="40% - Accent3" xfId="13"/>
+    <cellStyle builtinId="11" name="Warning Text" xfId="14"/>
+    <cellStyle builtinId="35" name="40% - Accent2" xfId="15"/>
+    <cellStyle builtinId="15" name="Title" xfId="16"/>
+    <cellStyle builtinId="53" name="CExplanatory Text" xfId="17"/>
+    <cellStyle builtinId="16" name="Heading 1" xfId="18"/>
+    <cellStyle builtinId="18" name="Heading 3" xfId="19"/>
+    <cellStyle builtinId="19" name="Heading 4" xfId="20"/>
+    <cellStyle builtinId="20" name="Input" xfId="21"/>
+    <cellStyle builtinId="40" name="60% - Accent3" xfId="22"/>
+    <cellStyle builtinId="26" name="Good" xfId="23"/>
+    <cellStyle builtinId="21" name="Output" xfId="24"/>
+    <cellStyle builtinId="30" name="20% - Accent1" xfId="25"/>
+    <cellStyle builtinId="22" name="Calculation" xfId="26"/>
+    <cellStyle builtinId="24" name="Linked Cell" xfId="27"/>
+    <cellStyle builtinId="25" name="Total" xfId="28"/>
+    <cellStyle builtinId="27" name="Bad" xfId="29"/>
+    <cellStyle builtinId="28" name="Neutral" xfId="30"/>
+    <cellStyle builtinId="29" name="Accent1" xfId="31"/>
+    <cellStyle builtinId="46" name="20% - Accent5" xfId="32"/>
+    <cellStyle builtinId="32" name="60% - Accent1" xfId="33"/>
+    <cellStyle builtinId="33" name="Accent2" xfId="34"/>
+    <cellStyle builtinId="34" name="20% - Accent2" xfId="35"/>
+    <cellStyle builtinId="50" name="20% - Accent6" xfId="36"/>
+    <cellStyle builtinId="36" name="60% - Accent2" xfId="37"/>
+    <cellStyle builtinId="37" name="Accent3" xfId="38"/>
+    <cellStyle builtinId="38" name="20% - Accent3" xfId="39"/>
+    <cellStyle builtinId="41" name="Accent4" xfId="40"/>
+    <cellStyle builtinId="42" name="20% - Accent4" xfId="41"/>
+    <cellStyle builtinId="43" name="40% - Accent4" xfId="42"/>
+    <cellStyle builtinId="45" name="Accent5" xfId="43"/>
+    <cellStyle builtinId="47" name="40% - Accent5" xfId="44"/>
+    <cellStyle builtinId="48" name="60% - Accent5" xfId="45"/>
+    <cellStyle builtinId="49" name="Accent6" xfId="46"/>
+    <cellStyle builtinId="51" name="40% - Accent6" xfId="47"/>
+    <cellStyle builtinId="52" name="60% - Accent6" xfId="48"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -746,10 +869,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -913,21 +1036,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -944,7 +1067,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -997,9 +1120,9 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <sheetPr/>
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
@@ -1007,13 +1130,13 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="26.7142857142857" customWidth="1"/>
-    <col min="2" max="2" width="7.85714285714286" customWidth="1"/>
-    <col min="4" max="4" width="201.571428571429" customWidth="1"/>
-    <col min="5" max="5" width="201.285714285714" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="26.7142857142857" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="7.85714285714286" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="201.571428571429" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="201.285714285714" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" ht="30" spans="1:8">
+    <row ht="30" r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1039,8 +1162,424 @@
         <v>7</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F7" t="s">
+        <v>35</v>
+      </c>
+      <c r="G7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" t="s">
+        <v>41</v>
+      </c>
+      <c r="G8" t="s">
+        <v>42</v>
+      </c>
+      <c r="H8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9" t="s">
+        <v>45</v>
+      </c>
+      <c r="E9" t="s">
+        <v>46</v>
+      </c>
+      <c r="F9" t="s">
+        <v>26</v>
+      </c>
+      <c r="G9" t="s">
+        <v>47</v>
+      </c>
+      <c r="H9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" t="s">
+        <v>19</v>
+      </c>
+      <c r="H11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" t="s">
+        <v>25</v>
+      </c>
+      <c r="F13" t="s">
+        <v>26</v>
+      </c>
+      <c r="G13" t="s">
+        <v>27</v>
+      </c>
+      <c r="H13" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E14" t="s">
+        <v>25</v>
+      </c>
+      <c r="F14" t="s">
+        <v>26</v>
+      </c>
+      <c r="G14" t="s">
+        <v>27</v>
+      </c>
+      <c r="H14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" t="s">
+        <v>33</v>
+      </c>
+      <c r="E15" t="s">
+        <v>34</v>
+      </c>
+      <c r="F15" t="s">
+        <v>35</v>
+      </c>
+      <c r="G15" t="s">
+        <v>36</v>
+      </c>
+      <c r="H15" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" t="s">
+        <v>38</v>
+      </c>
+      <c r="D16" t="s">
+        <v>39</v>
+      </c>
+      <c r="E16" t="s">
+        <v>40</v>
+      </c>
+      <c r="F16" t="s">
+        <v>41</v>
+      </c>
+      <c r="G16" t="s">
+        <v>42</v>
+      </c>
+      <c r="H16" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" t="s">
+        <v>44</v>
+      </c>
+      <c r="D17" t="s">
+        <v>45</v>
+      </c>
+      <c r="E17" t="s">
+        <v>46</v>
+      </c>
+      <c r="F17" t="s">
+        <v>26</v>
+      </c>
+      <c r="G17" t="s">
+        <v>47</v>
+      </c>
+      <c r="H17" t="s">
+        <v>48</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.699305555555556" right="0.699305555555556" top="0.75"/>
   <headerFooter/>
 </worksheet>
 </file>
--- a/test-output/XL/output.xlsx
+++ b/test-output/XL/output.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="41">
   <si>
     <t>URL</t>
   </si>
@@ -1122,7 +1122,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <sheetPr/>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
@@ -1578,6 +1578,214 @@
         <v>48</v>
       </c>
     </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" t="s">
+        <v>12</v>
+      </c>
+      <c r="F18" t="s">
+        <v>13</v>
+      </c>
+      <c r="G18" t="s">
+        <v>14</v>
+      </c>
+      <c r="H18" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" t="s">
+        <v>16</v>
+      </c>
+      <c r="D19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E19" t="s">
+        <v>17</v>
+      </c>
+      <c r="F19" t="s">
+        <v>18</v>
+      </c>
+      <c r="G19" t="s">
+        <v>19</v>
+      </c>
+      <c r="H19" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" t="s">
+        <v>21</v>
+      </c>
+      <c r="E20" t="s">
+        <v>22</v>
+      </c>
+      <c r="F20" t="s">
+        <v>13</v>
+      </c>
+      <c r="G20" t="s">
+        <v>14</v>
+      </c>
+      <c r="H20" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>8</v>
+      </c>
+      <c r="B21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" t="s">
+        <v>23</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21" t="s">
+        <v>25</v>
+      </c>
+      <c r="F21" t="s">
+        <v>26</v>
+      </c>
+      <c r="G21" t="s">
+        <v>27</v>
+      </c>
+      <c r="H21" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>8</v>
+      </c>
+      <c r="B22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" t="s">
+        <v>23</v>
+      </c>
+      <c r="D22" t="s">
+        <v>29</v>
+      </c>
+      <c r="E22" t="s">
+        <v>25</v>
+      </c>
+      <c r="F22" t="s">
+        <v>26</v>
+      </c>
+      <c r="G22" t="s">
+        <v>27</v>
+      </c>
+      <c r="H22" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23" t="s">
+        <v>31</v>
+      </c>
+      <c r="C23" t="s">
+        <v>32</v>
+      </c>
+      <c r="D23" t="s">
+        <v>33</v>
+      </c>
+      <c r="E23" t="s">
+        <v>34</v>
+      </c>
+      <c r="F23" t="s">
+        <v>35</v>
+      </c>
+      <c r="G23" t="s">
+        <v>36</v>
+      </c>
+      <c r="H23" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>30</v>
+      </c>
+      <c r="B24" t="s">
+        <v>31</v>
+      </c>
+      <c r="C24" t="s">
+        <v>38</v>
+      </c>
+      <c r="D24" t="s">
+        <v>39</v>
+      </c>
+      <c r="E24" t="s">
+        <v>40</v>
+      </c>
+      <c r="F24" t="s">
+        <v>41</v>
+      </c>
+      <c r="G24" t="s">
+        <v>42</v>
+      </c>
+      <c r="H24" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>30</v>
+      </c>
+      <c r="B25" t="s">
+        <v>31</v>
+      </c>
+      <c r="C25" t="s">
+        <v>44</v>
+      </c>
+      <c r="D25" t="s">
+        <v>45</v>
+      </c>
+      <c r="E25" t="s">
+        <v>46</v>
+      </c>
+      <c r="F25" t="s">
+        <v>26</v>
+      </c>
+      <c r="G25" t="s">
+        <v>47</v>
+      </c>
+      <c r="H25" t="s">
+        <v>48</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.699305555555556" right="0.699305555555556" top="0.75"/>
   <headerFooter/>
